--- a/configs/user_position.xlsx
+++ b/configs/user_position.xlsx
@@ -1180,13 +1180,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1201,78 +1201,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="B2">
-        <v>3500</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3000</v>
-      </c>
-      <c r="B3">
-        <v>3000</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3600</v>
-      </c>
-      <c r="B4">
-        <v>650</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2400</v>
-      </c>
-      <c r="B5">
-        <v>2300</v>
-      </c>
-      <c r="C5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4300</v>
-      </c>
-      <c r="B6">
-        <v>4400</v>
-      </c>
-      <c r="C6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>300</v>
-      </c>
-      <c r="B7">
-        <v>4400</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1000</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8">
         <v>1.5</v>
       </c>
     </row>
